--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H2">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I2">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J2">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N2">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O2">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P2">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q2">
-        <v>299.3577883903418</v>
+        <v>212.6855519132</v>
       </c>
       <c r="R2">
-        <v>2694.220095513076</v>
+        <v>1914.1699672188</v>
       </c>
       <c r="S2">
-        <v>0.05065307108811278</v>
+        <v>0.02902609245746381</v>
       </c>
       <c r="T2">
-        <v>0.05065307108811279</v>
+        <v>0.02902609245746381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H3">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I3">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J3">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P3">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q3">
-        <v>2479.685691265039</v>
+        <v>2104.869745342492</v>
       </c>
       <c r="R3">
-        <v>22317.17122138535</v>
+        <v>18943.82770808243</v>
       </c>
       <c r="S3">
-        <v>0.419577176432255</v>
+        <v>0.287260433488043</v>
       </c>
       <c r="T3">
-        <v>0.419577176432255</v>
+        <v>0.2872604334880429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H4">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I4">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J4">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N4">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O4">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P4">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q4">
-        <v>2873.044412892621</v>
+        <v>4710.802248594913</v>
       </c>
       <c r="R4">
-        <v>25857.39971603359</v>
+        <v>42397.22023735422</v>
       </c>
       <c r="S4">
-        <v>0.4861357496929262</v>
+        <v>0.6429030105079652</v>
       </c>
       <c r="T4">
-        <v>0.4861357496929262</v>
+        <v>0.6429030105079651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.091629</v>
       </c>
       <c r="I5">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J5">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N5">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O5">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P5">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q5">
-        <v>0.221724760309</v>
+        <v>0.18558079515</v>
       </c>
       <c r="R5">
-        <v>1.995522842781</v>
+        <v>1.67022715635</v>
       </c>
       <c r="S5">
-        <v>3.751711323869766E-05</v>
+        <v>2.532699221878473E-05</v>
       </c>
       <c r="T5">
-        <v>3.751711323869766E-05</v>
+        <v>2.532699221878472E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.091629</v>
       </c>
       <c r="I6">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J6">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>180.397216</v>
       </c>
       <c r="O6">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P6">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q6">
         <v>1.836624056096</v>
@@ -818,10 +818,10 @@
         <v>16.529616504864</v>
       </c>
       <c r="S6">
-        <v>0.0003107674244114311</v>
+        <v>0.0002506518152375544</v>
       </c>
       <c r="T6">
-        <v>0.0003107674244114311</v>
+        <v>0.0002506518152375544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.091629</v>
       </c>
       <c r="I7">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J7">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N7">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O7">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P7">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q7">
-        <v>2.127972307756</v>
+        <v>4.110455173022</v>
       </c>
       <c r="R7">
-        <v>19.151750769804</v>
+        <v>36.994096557198</v>
       </c>
       <c r="S7">
-        <v>0.0003600652355092615</v>
+        <v>0.000560971118259548</v>
       </c>
       <c r="T7">
-        <v>0.0003600652355092615</v>
+        <v>0.000560971118259548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H8">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I8">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J8">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N8">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O8">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P8">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q8">
-        <v>13.43641303516633</v>
+        <v>8.863512875449999</v>
       </c>
       <c r="R8">
-        <v>120.927717316497</v>
+        <v>79.77161587904999</v>
       </c>
       <c r="S8">
-        <v>0.002273518882869605</v>
+        <v>0.001209640908404203</v>
       </c>
       <c r="T8">
-        <v>0.002273518882869605</v>
+        <v>0.001209640908404203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H9">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I9">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J9">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>180.397216</v>
       </c>
       <c r="O9">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P9">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q9">
-        <v>111.2985278398187</v>
+        <v>87.71888791299911</v>
       </c>
       <c r="R9">
-        <v>1001.686750558368</v>
+        <v>789.469991216992</v>
       </c>
       <c r="S9">
-        <v>0.01883235533301569</v>
+        <v>0.01197136583996891</v>
       </c>
       <c r="T9">
-        <v>0.01883235533301569</v>
+        <v>0.01197136583996891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H10">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I10">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J10">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N10">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O10">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P10">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q10">
-        <v>128.9540907139053</v>
+        <v>196.3191952087104</v>
       </c>
       <c r="R10">
-        <v>1160.586816425148</v>
+        <v>1766.872756878394</v>
       </c>
       <c r="S10">
-        <v>0.02181977879766141</v>
+        <v>0.0267925068724391</v>
       </c>
       <c r="T10">
-        <v>0.02181977879766141</v>
+        <v>0.0267925068724391</v>
       </c>
     </row>
   </sheetData>
